--- a/static/asset/files/회사업로드양식.xlsx
+++ b/static/asset/files/회사업로드양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\api.esg.com\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esg.com\static\asset\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AC217-9155-4686-9DB8-A962FE1AA5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9F95F-691D-4E52-A538-BA7E49A57A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25670" yWindow="30" windowWidth="25230" windowHeight="13960" xr2:uid="{C9320EC4-E839-4DA0-B412-F9B216FC28DE}"/>
+    <workbookView xWindow="180" yWindow="4180" windowWidth="25420" windowHeight="13760" xr2:uid="{C9320EC4-E839-4DA0-B412-F9B216FC28DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>기업명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>활성여부 (활성, 비활성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 관리자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 (선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E639C1-EDAD-4702-A264-D0DD167A8CF8}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -550,10 +574,14 @@
     <col min="9" max="9" width="21.08203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="37.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="3"/>
+    <col min="12" max="12" width="25.4140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +615,20 @@
       <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -621,6 +661,15 @@
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
